--- a/Hisobot/Chipta.xlsx
+++ b/Hisobot/Chipta.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t/>
   </si>
   <si>
-    <t>1/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONYOR AKA ISH </t>
-  </si>
-  <si>
-    <t>Telefon: Sotuvchi: Sarvar Sana: 09.09.2021  18:22:13</t>
+    <t>DO`KON 1/40</t>
+  </si>
+  <si>
+    <t>XARIDOR</t>
+  </si>
+  <si>
+    <t>Telefon: +998 99 883 6558 Sotuvchi: Kassa2 Sana: 14.10.2021  17:20:55</t>
   </si>
   <si>
     <t>Tovar</t>
@@ -38,7 +38,10 @@
     <t>Jami</t>
   </si>
   <si>
-    <t>PERFETTO OQ  4X175 G</t>
+    <t>YUMOS 1440ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMON LATTA ORGINAL </t>
   </si>
   <si>
     <t>Jami xarid</t>
@@ -466,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -487,7 +490,7 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" t="n" s="10">
-        <v>7443.0</v>
+        <v>9169.0</v>
       </c>
     </row>
     <row r="2">
@@ -517,30 +520,44 @@
         <v>8</v>
       </c>
       <c r="B4" t="n" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n" s="3">
-        <v>17000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="D4" t="n" s="3">
-        <v>51000.0</v>
+        <v>36000.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="17">
+      <c r="A5" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="B5" t="n" s="10">
-        <v>51000.0</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="13"/>
+      <c r="B5" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n" s="3">
+        <v>8000.0</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="17">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n" s="10">
+        <v>44000.0</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
